--- a/ExcelDemo/wwwroot/upload/Book1.xlsx
+++ b/ExcelDemo/wwwroot/upload/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C5F480-23B0-4DE0-AC2E-5C05B6549013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9C1CFC-2173-42B0-8F65-7626D0542186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B5E99878-A940-4D79-9412-9CA5CD2270BE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>df</t>
-  </si>
-  <si>
-    <t>dd</t>
   </si>
 </sst>
 </file>
@@ -435,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F8D5AD1-C7D1-48B9-9B1F-9B6C60768BCC}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,7 +443,7 @@
     <col min="1" max="1" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,11 +459,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -482,11 +476,8 @@
       <c r="E2" s="2">
         <v>100000</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -502,11 +493,8 @@
       <c r="E3" s="2">
         <v>1000000</v>
       </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -520,11 +508,8 @@
       <c r="E4" s="2">
         <v>2000000</v>
       </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -539,9 +524,6 @@
       </c>
       <c r="E5">
         <v>3223</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
